--- a/Soshine Marketing Company.xlsx
+++ b/Soshine Marketing Company.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Soshine Marketing Company</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>cctv camera in bangladesh</t>
+  </si>
+  <si>
+    <t>cctv camera service provider in bangladesh</t>
+  </si>
+  <si>
+    <t>cctv camera supplier in bangladesh</t>
   </si>
 </sst>
 </file>
@@ -192,6 +198,11 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,11 +212,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,12 +518,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
@@ -528,97 +535,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
@@ -657,12 +664,12 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2">
         <v>73</v>
       </c>
@@ -697,12 +704,12 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="2">
         <v>57</v>
       </c>
@@ -737,12 +744,12 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="2">
         <v>32.520000000000003</v>
       </c>
@@ -777,12 +784,12 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="2">
         <v>25.65</v>
       </c>
@@ -817,12 +824,12 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="2">
         <v>30</v>
       </c>
@@ -857,12 +864,12 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="2">
         <v>27.38</v>
       </c>
@@ -899,12 +906,12 @@
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="2">
         <v>23.29</v>
       </c>
@@ -941,12 +948,12 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="2">
         <v>35.29</v>
       </c>
@@ -980,12 +987,12 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="2">
         <v>24.34</v>
       </c>
@@ -1021,12 +1028,12 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="2">
         <v>29.16</v>
       </c>
@@ -1062,12 +1069,12 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="2">
         <v>58.27</v>
       </c>
@@ -1099,199 +1106,220 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="M19">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="A1:R4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
@@ -1304,23 +1332,11 @@
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A1:R4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Soshine Marketing Company.xlsx
+++ b/Soshine Marketing Company.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Soshine Marketing Company</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>cctv camera supplier in bangladesh</t>
+  </si>
+  <si>
+    <t>cctv camera price list in bangladesh</t>
+  </si>
+  <si>
+    <t>CCTV camera price in chittagong</t>
+  </si>
+  <si>
+    <t>CCTV camera shop in chittagong</t>
+  </si>
+  <si>
+    <t>CCTV Camera price in Bangladesh</t>
+  </si>
+  <si>
+    <t>cc camera provider in bangladesh</t>
   </si>
 </sst>
 </file>
@@ -198,11 +213,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,6 +222,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +534,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,97 +550,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
@@ -664,12 +679,12 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="2">
         <v>73</v>
       </c>
@@ -704,12 +719,12 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="2">
         <v>57</v>
       </c>
@@ -744,12 +759,12 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="2">
         <v>32.520000000000003</v>
       </c>
@@ -784,12 +799,12 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="2">
         <v>25.65</v>
       </c>
@@ -824,12 +839,12 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="2">
         <v>30</v>
       </c>
@@ -864,12 +879,12 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="2">
         <v>27.38</v>
       </c>
@@ -906,12 +921,12 @@
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="2">
         <v>23.29</v>
       </c>
@@ -948,12 +963,12 @@
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="2">
         <v>35.29</v>
       </c>
@@ -987,12 +1002,12 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="2">
         <v>24.34</v>
       </c>
@@ -1028,12 +1043,12 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="2">
         <v>29.16</v>
       </c>
@@ -1069,12 +1084,12 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="2">
         <v>58.27</v>
       </c>
@@ -1110,34 +1125,34 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
       <c r="M19">
         <v>693</v>
       </c>
@@ -1146,168 +1161,190 @@
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="B21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="B24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:R4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
@@ -1320,23 +1357,11 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="A1:R4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
